--- a/2012 Workplace Fatalities by State Analysis by Angelica Butler.xlsx
+++ b/2012 Workplace Fatalities by State Analysis by Angelica Butler.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04c242f9b6dd9099/Desktop/Bootcamp/Project 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Code\Quickstart\2012-Workplace-Fatalities-by-State-Data-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1841" documentId="8_{1AD1E061-80A1-42A8-B5E5-3DDD0F8467AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9201074B-CDC6-44CA-A442-39FBA362C826}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C50519-4BC1-4D95-8FF2-ED2685946085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="758" activeTab="6" xr2:uid="{6E379747-0E21-4A18-891C-55B1614F739F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="758" activeTab="5" xr2:uid="{6E379747-0E21-4A18-891C-55B1614F739F}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="16" r:id="rId1"/>
@@ -33,15 +33,7 @@
     <definedName name="_xlchart.v1.13" hidden="1">'Descriptive Statistics'!$C$74:$C$89</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">'Descriptive Statistics'!$D$73</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">'Descriptive Statistics'!$D$74:$D$89</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Descriptive Statistics'!$A$73</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Descriptive Statistics'!$A$74:$A$89</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Descriptive Statistics'!$B$73</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Descriptive Statistics'!$B$74:$B$89</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Descriptive Statistics'!$B$73</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Descriptive Statistics'!$C$73</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Descriptive Statistics'!$C$74:$C$89</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Descriptive Statistics'!$D$73</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Descriptive Statistics'!$D$74:$D$89</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Descriptive Statistics'!$B$74:$B$89</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Descriptive Statistics'!$C$73</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'Descriptive Statistics'!$C$74:$C$89</definedName>
@@ -85,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="218">
   <si>
     <t>State</t>
   </si>
@@ -772,6 +764,24 @@
   <si>
     <t>Identify the top 5 states that had the highest Penalities in 2013.</t>
   </si>
+  <si>
+    <t>A1.</t>
+  </si>
+  <si>
+    <t>A2.</t>
+  </si>
+  <si>
+    <t>A3.</t>
+  </si>
+  <si>
+    <t>B1.</t>
+  </si>
+  <si>
+    <t>B2.</t>
+  </si>
+  <si>
+    <t>Texas and California</t>
+  </si>
 </sst>
 </file>
 
@@ -780,9 +790,9 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,8 +957,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1140,6 +1165,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1320,7 +1351,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1366,7 +1397,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1378,26 +1409,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1445,7 +1477,28 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -1462,7 +1515,7 @@
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -1475,6 +1528,12 @@
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1555,12 +1614,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1596,7 +1649,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[2012_Workplace_Fatalities_by_State (1) - Copy.xlsx]Analysis Details!PivotTable2</c:name>
+    <c:name>[2012 Workplace Fatalities by State Analysis by Angelica Butler.xlsx]Analysis Details!PivotTable2</c:name>
     <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
@@ -2374,8 +2427,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11425616715168289"/>
-          <c:y val="2.1488663314676026E-2"/>
+          <c:x val="0.11090006802120653"/>
+          <c:y val="2.3970211775657436E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2386,26 +2439,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2424,8 +2457,352 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Analysis Details'!$F$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Rate of Fatalities, 2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Analysis Details'!$E$66:$E$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.21</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Analysis Details'!$F$66:$F$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-1ED5-47E0-A3B6-C56141F8033B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Analysis Details'!$F$65</c:f>
@@ -2904,7 +3281,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7881-4F56-97CC-CB7B946F2919}"/>
+              <c16:uniqueId val="{00000009-1ED5-47E0-A3B6-C56141F8033B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2974,7 +3351,17 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2988,26 +3375,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3108,26 +3475,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3175,30 +3522,9 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -3266,8 +3592,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11827307762085824"/>
-          <c:y val="2.6016260162601626E-2"/>
+          <c:x val="0.12945237355312689"/>
+          <c:y val="1.8498703159082773E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3985,10 +4311,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.92949231760585427"/>
+          <c:x val="0.90843002117207239"/>
           <c:y val="0.44530819160487778"/>
-          <c:w val="6.1295337852459823E-2"/>
-          <c:h val="0.10938336159608635"/>
+          <c:w val="8.2357652385085758E-2"/>
+          <c:h val="0.11940683709921993"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4078,7 +4404,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[2012_Workplace_Fatalities_by_State (1) - Copy.xlsx]Analysis Details!PivotTable7</c:name>
+    <c:name>[2012 Workplace Fatalities by State Analysis by Angelica Butler.xlsx]Analysis Details!PivotTable7</c:name>
     <c:fmtId val="27"/>
   </c:pivotSource>
   <c:chart>
@@ -5513,7 +5839,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[2012_Workplace_Fatalities_by_State (1) - Copy.xlsx]Analysis Details!PivotTable5</c:name>
+    <c:name>[2012 Workplace Fatalities by State Analysis by Angelica Butler.xlsx]Analysis Details!PivotTable5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -6052,7 +6378,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[2012_Workplace_Fatalities_by_State (1) - Copy.xlsx]Analysis Details!PivotTable7</c:name>
+    <c:name>[2012 Workplace Fatalities by State Analysis by Angelica Butler.xlsx]Analysis Details!PivotTable7</c:name>
     <c:fmtId val="16"/>
   </c:pivotSource>
   <c:chart>
@@ -7706,7 +8032,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[2012_Workplace_Fatalities_by_State (1) - Copy.xlsx]Analysis Details!PivotTable2</c:name>
+    <c:name>[2012 Workplace Fatalities by State Analysis by Angelica Butler.xlsx]Analysis Details!PivotTable2</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -9341,7 +9667,7 @@
         <cx:title>
           <cx:tx>
             <cx:txData>
-              <cx:v>Number of Fatalitities</cx:v>
+              <cx:v>Number of Fatalities</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:txPr>
@@ -9352,7 +9678,7 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -9361,7 +9687,7 @@
                   </a:solidFill>
                   <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
                 </a:rPr>
-                <a:t>Number of Fatalitities</a:t>
+                <a:t>Number of Fatalities</a:t>
               </a:r>
             </a:p>
           </cx:txPr>
@@ -9416,46 +9742,6 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10331,525 +10617,6 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11885,508 +11652,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12902,7 +12167,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13417,7 +12682,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13920,7 +13185,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14439,7 +13704,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14942,7 +14207,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15444,6 +14709,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -15493,8 +15277,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9870757" y="13933170"/>
-              <a:ext cx="8952548" cy="3916680"/>
+              <a:off x="6317932" y="14112240"/>
+              <a:ext cx="5862638" cy="3918585"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15531,16 +15315,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476586</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>554355</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>173804</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15570,15 +15354,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>175259</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>18377</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>762001</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>22859</xdr:rowOff>
+      <xdr:colOff>777463</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>115869</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15607,16 +15391,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>826771</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>175259</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>27902</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>14566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>426721</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>40005</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>62416</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15645,16 +15429,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>20955</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>347607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>713142</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>130662</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -15690,8 +15474,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="630555" y="552450"/>
-              <a:ext cx="6299835" cy="4572000"/>
+              <a:off x="0" y="711462"/>
+              <a:ext cx="6807237" cy="4737960"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15723,16 +15507,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>18602</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>31712</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15921,8 +15705,8 @@
       <xdr:row>129</xdr:row>
       <xdr:rowOff>131444</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="State Reference">
@@ -15945,7 +15729,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -15999,8 +15783,8 @@
       <xdr:row>129</xdr:row>
       <xdr:rowOff>135254</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Penalties FY 2013 (Average $)">
@@ -16023,7 +15807,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -16077,8 +15861,8 @@
       <xdr:row>129</xdr:row>
       <xdr:rowOff>121919</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Penalties FY 2013 (Rank)">
@@ -16101,7 +15885,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -18121,6 +17905,831 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5B27FF8-A9D2-41DA-87F9-E5DB7D7D7032}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="A7:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Rate of Fatalities, 2012" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57F1D4F5-EA1C-4A97-830B-45F82107EF8F}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="17">
+  <location ref="A65:C116" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="50">
+        <item x="30"/>
+        <item x="45"/>
+        <item x="10"/>
+        <item x="26"/>
+        <item x="49"/>
+        <item x="33"/>
+        <item x="31"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="43"/>
+        <item x="8"/>
+        <item x="38"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="37"/>
+        <item x="28"/>
+        <item x="42"/>
+        <item x="23"/>
+        <item x="29"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="36"/>
+        <item x="41"/>
+        <item x="13"/>
+        <item x="24"/>
+        <item x="6"/>
+        <item x="27"/>
+        <item x="17"/>
+        <item x="46"/>
+        <item x="18"/>
+        <item x="21"/>
+        <item x="16"/>
+        <item x="47"/>
+        <item x="34"/>
+        <item x="4"/>
+        <item x="32"/>
+        <item x="19"/>
+        <item x="44"/>
+        <item x="0"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="48"/>
+        <item x="22"/>
+        <item x="25"/>
+        <item x="12"/>
+        <item x="39"/>
+        <item x="1"/>
+        <item x="40"/>
+        <item x="35"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="51">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of Years to Inspect Each Workplace Once" fld="10" subtotal="average" baseField="1" baseItem="11"/>
+    <dataField name="Sum of Rate of Fatalities, 2012" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="6">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="33"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="49"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C360DBD7-49CC-46CD-A376-E241045541B6}" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="37">
+  <location ref="A32:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="51">
+        <item x="30"/>
+        <item x="45"/>
+        <item x="10"/>
+        <item x="26"/>
+        <item x="49"/>
+        <item x="33"/>
+        <item x="31"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="43"/>
+        <item x="8"/>
+        <item x="38"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="37"/>
+        <item x="28"/>
+        <item x="42"/>
+        <item x="23"/>
+        <item x="29"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="36"/>
+        <item x="41"/>
+        <item x="13"/>
+        <item x="24"/>
+        <item x="6"/>
+        <item x="27"/>
+        <item x="17"/>
+        <item x="46"/>
+        <item x="18"/>
+        <item x="21"/>
+        <item x="16"/>
+        <item x="47"/>
+        <item x="34"/>
+        <item x="4"/>
+        <item x="32"/>
+        <item x="19"/>
+        <item x="44"/>
+        <item x="0"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="48"/>
+        <item x="22"/>
+        <item x="25"/>
+        <item x="12"/>
+        <item x="39"/>
+        <item x="1"/>
+        <item x="40"/>
+        <item x="35"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item h="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="22">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="11" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Number of Injuries/Illnesses 2012" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="16" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="27" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="27" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C1336E3-44C0-4E18-8D11-593528B2C02D}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="F7:G10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Number of Fatalities, 2012" fld="2" baseField="0" baseItem="1" numFmtId="43"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48828C65-7455-402B-95BB-8081F6DAD285}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A123:F129" firstHeaderRow="0" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="14">
@@ -18551,7 +19160,7 @@
     <dataField name="Sum of Penalties FY 2013 (Average $)" fld="8" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="4">
+    <format dxfId="14">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -18560,7 +19169,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="13">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -18569,13 +19178,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="12">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="11">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="10">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
     <format dxfId="9">
@@ -18597,804 +19206,6 @@
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5B27FF8-A9D2-41DA-87F9-E5DB7D7D7032}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A7:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Rate of Fatalities, 2012" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="5" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57F1D4F5-EA1C-4A97-830B-45F82107EF8F}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="17">
-  <location ref="A65:C116" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
-        <item x="30"/>
-        <item x="45"/>
-        <item x="10"/>
-        <item x="26"/>
-        <item x="49"/>
-        <item x="33"/>
-        <item x="31"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="43"/>
-        <item x="8"/>
-        <item x="38"/>
-        <item x="5"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="37"/>
-        <item x="28"/>
-        <item x="42"/>
-        <item x="23"/>
-        <item x="29"/>
-        <item x="2"/>
-        <item x="14"/>
-        <item x="36"/>
-        <item x="41"/>
-        <item x="13"/>
-        <item x="24"/>
-        <item x="6"/>
-        <item x="27"/>
-        <item x="17"/>
-        <item x="46"/>
-        <item x="18"/>
-        <item x="21"/>
-        <item x="16"/>
-        <item x="47"/>
-        <item x="34"/>
-        <item x="4"/>
-        <item x="32"/>
-        <item x="19"/>
-        <item x="44"/>
-        <item x="0"/>
-        <item x="20"/>
-        <item x="3"/>
-        <item x="48"/>
-        <item x="22"/>
-        <item x="25"/>
-        <item x="12"/>
-        <item x="39"/>
-        <item x="1"/>
-        <item x="40"/>
-        <item x="35"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="1"/>
-        <item x="0"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="51">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Average of Years to Inspect Each Workplace Once" fld="10" subtotal="average" baseField="1" baseItem="11"/>
-    <dataField name="Sum of Rate of Fatalities, 2012" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="3">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C360DBD7-49CC-46CD-A376-E241045541B6}" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
-  <location ref="A32:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="51">
-        <item x="30"/>
-        <item x="45"/>
-        <item x="10"/>
-        <item x="26"/>
-        <item x="49"/>
-        <item x="33"/>
-        <item x="31"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="43"/>
-        <item x="8"/>
-        <item x="38"/>
-        <item x="5"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="37"/>
-        <item x="28"/>
-        <item x="42"/>
-        <item x="23"/>
-        <item x="29"/>
-        <item x="2"/>
-        <item x="14"/>
-        <item x="36"/>
-        <item x="41"/>
-        <item x="13"/>
-        <item x="24"/>
-        <item x="6"/>
-        <item x="27"/>
-        <item x="17"/>
-        <item x="46"/>
-        <item x="18"/>
-        <item x="21"/>
-        <item x="16"/>
-        <item x="47"/>
-        <item x="34"/>
-        <item x="4"/>
-        <item x="32"/>
-        <item x="19"/>
-        <item x="44"/>
-        <item x="0"/>
-        <item x="20"/>
-        <item x="3"/>
-        <item x="48"/>
-        <item x="22"/>
-        <item x="25"/>
-        <item x="12"/>
-        <item x="39"/>
-        <item x="1"/>
-        <item x="40"/>
-        <item x="35"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item h="1" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="22">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="11" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Number of Injuries/Illnesses 2012" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="16" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="27" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="27" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C1336E3-44C0-4E18-8D11-593528B2C02D}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="F7:G10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Number of Fatalities, 2012" fld="2" baseField="0" baseItem="1" numFmtId="43"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="37">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="36">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -19604,8 +19415,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{279B784F-EE23-45C5-988F-5D8F8B1F2497}" name="Table1" displayName="Table1" ref="A1:L51" totalsRowShown="0">
   <autoFilter ref="A1:L51" xr:uid="{279B784F-EE23-45C5-988F-5D8F8B1F2497}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{FDB4D679-E969-406D-9190-7F2BD4574443}" name="State" dataDxfId="40"/>
-    <tableColumn id="12" xr3:uid="{9A2F6C24-0D5C-4B04-B761-BBDC23E8DBF3}" name="State Reference" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{FDB4D679-E969-406D-9190-7F2BD4574443}" name="State" dataDxfId="43"/>
+    <tableColumn id="12" xr3:uid="{9A2F6C24-0D5C-4B04-B761-BBDC23E8DBF3}" name="State Reference" dataDxfId="42"/>
     <tableColumn id="2" xr3:uid="{49EE2843-CEA0-4676-8F21-523B343ED932}" name="Number of Fatalities, 2012"/>
     <tableColumn id="3" xr3:uid="{6C3D30A1-2914-413D-90EC-6B0D88BF845D}" name="Rate of Fatalities, 2012"/>
     <tableColumn id="4" xr3:uid="{3EC0D59B-7690-4F3D-B64F-27808F428176}" name="State Rank, Fatalities 2012"/>
@@ -19615,30 +19426,30 @@
     <tableColumn id="8" xr3:uid="{E41D6D84-49F5-45FA-B9C6-AB5F00EC9613}" name="Penalties FY 2013 (Rank)"/>
     <tableColumn id="9" xr3:uid="{5A77D3DF-5CD9-46A1-9B36-D045DAE000C7}" name="Inspectors"/>
     <tableColumn id="10" xr3:uid="{E8D389C4-CC04-4221-A22C-7577A1FC4BA8}" name="Years to Inspect Each Workplace Once"/>
-    <tableColumn id="13" xr3:uid="{1C425143-9B0F-4437-AEBE-90FA3DCC5604}" name="State or Federal Program" dataDxfId="38"/>
+    <tableColumn id="13" xr3:uid="{1C425143-9B0F-4437-AEBE-90FA3DCC5604}" name="State or Federal Program" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{02BA9626-D3B2-47A0-8E5B-25A2F1D883AE}" name="Table2" displayName="Table2" ref="A1:L52" totalsRowCount="1" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{02BA9626-D3B2-47A0-8E5B-25A2F1D883AE}" name="Table2" displayName="Table2" ref="A1:L52" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:L51" xr:uid="{02BA9626-D3B2-47A0-8E5B-25A2F1D883AE}"/>
   <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{ADB4A55C-C7D2-46C9-B031-F20925CA9C7F}" name="State Reference" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{AFAD336C-7E9C-4E3B-90C1-DCC0F6344B7F}" name="Region" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="2" xr3:uid="{ADB4A55C-C7D2-46C9-B031-F20925CA9C7F}" name="State Reference" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{AFAD336C-7E9C-4E3B-90C1-DCC0F6344B7F}" name="Region" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>VLOOKUP(A2,'US Census Bureau Regions'!A:D,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{63E263C9-81D2-420A-92EE-B51BB34C48E8}" name="Number of Fatalities, 2012" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{E6BE88BE-AC9D-4557-AAF2-955094FA1246}" name="Rate of Fatalities, 2012" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{373BB6FA-D7B4-4588-AED4-4940063B0FCE}" name="State Rank, Fatalities 2012" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{3F6024F8-9E89-4B7E-9CDF-603DD193080A}" name="Number of Injuries/Illnesses 2012" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{CFE8DE81-BD78-4F14-9389-A6DBAE9BA132}" name="Injuries/Illnesses 2012 Rate" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{BEFAA695-AFC0-4374-A0E5-CC15284FE21E}" name="Penalties FY 2013 (Average $)" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{87675506-C6E3-44FE-A6F3-B9184F3292B7}" name="Penalties FY 2013 (Rank)" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{8E110389-3DED-424D-8B02-C391FA392669}" name="Inspectors" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{31A27A57-42AA-46BD-9054-D8646C1A576B}" name="Years to Inspect Each Workplace Once" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{48A4E531-DB4C-4AFF-A573-86735AB632B9}" name="State or Federal Program" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{63E263C9-81D2-420A-92EE-B51BB34C48E8}" name="Number of Fatalities, 2012" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{E6BE88BE-AC9D-4557-AAF2-955094FA1246}" name="Rate of Fatalities, 2012" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{373BB6FA-D7B4-4588-AED4-4940063B0FCE}" name="State Rank, Fatalities 2012" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{3F6024F8-9E89-4B7E-9CDF-603DD193080A}" name="Number of Injuries/Illnesses 2012" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{CFE8DE81-BD78-4F14-9389-A6DBAE9BA132}" name="Injuries/Illnesses 2012 Rate" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{BEFAA695-AFC0-4374-A0E5-CC15284FE21E}" name="Penalties FY 2013 (Average $)" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{87675506-C6E3-44FE-A6F3-B9184F3292B7}" name="Penalties FY 2013 (Rank)" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{8E110389-3DED-424D-8B02-C391FA392669}" name="Inspectors" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{31A27A57-42AA-46BD-9054-D8646C1A576B}" name="Years to Inspect Each Workplace Once" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{48A4E531-DB4C-4AFF-A573-86735AB632B9}" name="State or Federal Program" dataDxfId="16" totalsRowDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -19964,7 +19775,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K1048576"/>
+      <selection activeCell="E49" sqref="E49:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21740,7 +21551,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25922,8 +25733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E2FFDE-A685-45C3-B76A-85FDF1EE1359}">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28293,7 +28104,7 @@
         <v>0.73311646762437488</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="12"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -28305,7 +28116,7 @@
       <c r="I65" s="21"/>
       <c r="J65" s="21"/>
     </row>
-    <row r="66" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
         <v>75</v>
       </c>
@@ -28322,7 +28133,7 @@
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
     </row>
-    <row r="67" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="s">
         <v>74</v>
       </c>
@@ -28339,7 +28150,7 @@
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
     </row>
-    <row r="68" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
         <v>76</v>
       </c>
@@ -28356,7 +28167,7 @@
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
     </row>
-    <row r="69" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -28368,10 +28179,10 @@
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
     </row>
-    <row r="70" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="12"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23" t="s">
         <v>158</v>
       </c>
@@ -28385,7 +28196,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>146</v>
       </c>
@@ -28401,8 +28212,11 @@
       <c r="I74" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>48</v>
       </c>
@@ -28419,7 +28233,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>97</v>
       </c>
@@ -28433,7 +28247,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>88</v>
       </c>
@@ -28447,7 +28261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>137</v>
       </c>
@@ -28461,7 +28275,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>115</v>
       </c>
@@ -28475,7 +28289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>31</v>
       </c>
@@ -29332,129 +29146,194 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD6E49C-87E1-4E6F-BB07-E4007D65BEF4}">
-  <dimension ref="A1:Y59"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L110" sqref="L110"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA60" sqref="AA60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+    </row>
+    <row r="3" spans="1:25" s="28" customFormat="1" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A3" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" s="28" customFormat="1" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A30" s="28" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="33"/>
-      <c r="V58" s="33"/>
-      <c r="W58" s="33"/>
-      <c r="X58" s="33"/>
-      <c r="Y58" s="33"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="31"/>
+      <c r="V58" s="31"/>
+      <c r="W58" s="31"/>
+      <c r="X58" s="31"/>
+      <c r="Y58" s="31"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="33"/>
-      <c r="W59" s="33"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="33"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="31"/>
+      <c r="V59" s="31"/>
+      <c r="W59" s="31"/>
+      <c r="X59" s="31"/>
+      <c r="Y59" s="31"/>
+    </row>
+    <row r="60" spans="1:25" s="7" customFormat="1" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A60" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="33.6" hidden="1" x14ac:dyDescent="0.65">
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+    </row>
+    <row r="62" spans="1:25" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -29462,7 +29341,8 @@
     <mergeCell ref="A58:Y59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="38" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -29470,8 +29350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9003324-7295-4E25-9B29-DC51A47D9EE0}">
   <dimension ref="A1:AB189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29497,7 +29377,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -29563,14 +29443,13 @@
         <v>4617</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="26" t="s">
         <v>126</v>
       </c>
     </row>
@@ -29772,14 +29651,14 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
     </row>
     <row r="65" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="25" t="s">
         <v>128</v>
       </c>
       <c r="B65" s="14" t="s">
@@ -29815,7 +29694,7 @@
       <c r="AB66" s="7"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="A67" s="27" t="s">
         <v>122</v>
       </c>
       <c r="B67">
@@ -30391,7 +30270,7 @@
       <c r="AB98" s="7"/>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="A99" s="27" t="s">
         <v>124</v>
       </c>
       <c r="B99">
@@ -30679,7 +30558,7 @@
       <c r="AB114" s="6"/>
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="A115" s="27" t="s">
         <v>112</v>
       </c>
       <c r="B115">
@@ -30741,7 +30620,7 @@
       <c r="C124" t="s">
         <v>13</v>
       </c>
-      <c r="D124" s="25">
+      <c r="D124">
         <v>63</v>
       </c>
       <c r="E124" s="10">
@@ -30761,7 +30640,7 @@
       <c r="C125" t="s">
         <v>0</v>
       </c>
-      <c r="D125" s="25">
+      <c r="D125">
         <v>375</v>
       </c>
       <c r="E125" s="10">
@@ -30781,7 +30660,7 @@
       <c r="C126" t="s">
         <v>0</v>
       </c>
-      <c r="D126" s="25">
+      <c r="D126">
         <v>91</v>
       </c>
       <c r="E126" s="10">
@@ -30801,7 +30680,7 @@
       <c r="C127" t="s">
         <v>13</v>
       </c>
-      <c r="D127" s="25">
+      <c r="D127">
         <v>48</v>
       </c>
       <c r="E127" s="10">
@@ -30821,7 +30700,7 @@
       <c r="C128" t="s">
         <v>13</v>
       </c>
-      <c r="D128" s="25">
+      <c r="D128">
         <v>65</v>
       </c>
       <c r="E128" s="10"/>
@@ -30833,7 +30712,7 @@
       <c r="A129" t="s">
         <v>64</v>
       </c>
-      <c r="D129" s="25">
+      <c r="D129">
         <v>642</v>
       </c>
       <c r="E129" s="10">
@@ -30849,18 +30728,18 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="30" t="s">
+      <c r="A135" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="B135" s="30"/>
-      <c r="C135" s="30"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="29" t="s">
+      <c r="A136" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="B136" s="29"/>
-      <c r="C136" s="29"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="34"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
